--- a/Gangbuk_edit2/Seongdonggu_edit2.xlsx
+++ b/Gangbuk_edit2/Seongdonggu_edit2.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kimyihwan\OneDrive - kaist.ac.kr\Prokim\web scraping\Gangbuk_edit2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_EC5A9E8D0A1777CF0A160B07939DDF2B512D1365" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{7029AA20-FE59-40CD-95C2-26050313AED2}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edit2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="532">
   <si>
     <t>읍면동</t>
   </si>
@@ -274,33 +280,12 @@
     <t>금호동4가</t>
   </si>
   <si>
-    <t>YM프라젠</t>
-  </si>
-  <si>
     <t>강변임광</t>
   </si>
   <si>
-    <t>금호타운1차(강변)</t>
-  </si>
-  <si>
-    <t>대우1차(주상복합)</t>
-  </si>
-  <si>
     <t>삼성</t>
   </si>
   <si>
-    <t>성수현대</t>
-  </si>
-  <si>
-    <t>왕십리뉴타운2차텐즈힐(2구역)</t>
-  </si>
-  <si>
-    <t>한신休플러스</t>
-  </si>
-  <si>
-    <t>한진해모르</t>
-  </si>
-  <si>
     <t>e편한세상옥수파크힐스</t>
   </si>
   <si>
@@ -1604,17 +1589,53 @@
   </si>
   <si>
     <t>52세대</t>
+  </si>
+  <si>
+    <t>한진해모로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e편한세상옥수파크힐스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금호한신휴플러스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>텐즈힐2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성수대우1차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강변금호타운</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강변임광</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>와이엠프라젠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1622,8 +1643,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1669,15 +1697,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1719,7 +1755,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1751,9 +1787,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1785,6 +1839,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1960,14 +2032,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BY23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="29.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:77">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2197,7 +2274,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:77">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2205,7 +2282,7 @@
         <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>531</v>
       </c>
       <c r="D2">
         <v>57</v>
@@ -2214,7 +2291,7 @@
         <v>2007.1</v>
       </c>
     </row>
-    <row r="3" spans="1:77">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -2222,7 +2299,7 @@
         <v>77</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>530</v>
       </c>
       <c r="D3">
         <v>58</v>
@@ -2231,10 +2308,10 @@
         <v>2000.08</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:77">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>22</v>
       </c>
@@ -2242,7 +2319,7 @@
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>529</v>
       </c>
       <c r="D4">
         <v>57</v>
@@ -2251,133 +2328,133 @@
         <v>1994.02</v>
       </c>
       <c r="R4" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="S4" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="T4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="U4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="V4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="W4" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="X4" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="Y4" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="Z4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AA4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AB4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AC4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="AD4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AE4" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="AF4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AG4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AH4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AI4" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="AJ4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AK4" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AL4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AM4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AN4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AO4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="AP4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AQ4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AR4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AS4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AT4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AU4" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="AV4" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="AW4" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AX4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AY4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AZ4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BA4" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="BB4" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="BC4" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="BD4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BE4" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BF4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BG4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:77">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>30</v>
       </c>
@@ -2385,7 +2462,7 @@
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>528</v>
       </c>
       <c r="D5">
         <v>45</v>
@@ -2394,61 +2471,61 @@
         <v>1999.04</v>
       </c>
       <c r="R5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="S5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="T5" t="s">
+        <v>225</v>
+      </c>
+      <c r="U5" t="s">
+        <v>227</v>
+      </c>
+      <c r="V5" t="s">
+        <v>229</v>
+      </c>
+      <c r="W5" t="s">
         <v>232</v>
       </c>
-      <c r="U5" t="s">
-        <v>234</v>
-      </c>
-      <c r="V5" t="s">
-        <v>236</v>
-      </c>
-      <c r="W5" t="s">
-        <v>239</v>
-      </c>
       <c r="X5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="Y5" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="Z5" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AA5" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AB5" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AC5" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="AD5" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="AE5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="AF5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI5" t="s">
         <v>232</v>
       </c>
-      <c r="AG5" t="s">
-        <v>234</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>239</v>
-      </c>
     </row>
-    <row r="6" spans="1:77">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>50</v>
       </c>
@@ -2456,7 +2533,7 @@
         <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>198</v>
@@ -2465,7 +2542,7 @@
         <v>1996.12</v>
       </c>
     </row>
-    <row r="7" spans="1:77">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>63</v>
       </c>
@@ -2473,7 +2550,7 @@
         <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>527</v>
       </c>
       <c r="D7">
         <v>96</v>
@@ -2482,7 +2559,7 @@
         <v>1990.06</v>
       </c>
     </row>
-    <row r="8" spans="1:77">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>76</v>
       </c>
@@ -2490,7 +2567,7 @@
         <v>80</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>526</v>
       </c>
       <c r="D8">
         <v>305</v>
@@ -2499,133 +2576,133 @@
         <v>2014.06</v>
       </c>
       <c r="R8" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S8" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="T8" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="U8" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="V8" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="W8" t="s">
+        <v>232</v>
+      </c>
+      <c r="X8" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>315</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>323</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>334</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>256</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>375</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>385</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>397</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>226</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>229</v>
+      </c>
+      <c r="BA8" t="s">
         <v>239</v>
       </c>
-      <c r="X8" t="s">
-        <v>255</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>226</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>283</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>296</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>309</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>234</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>322</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>330</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>341</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>233</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>236</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>248</v>
-      </c>
-      <c r="AP8" t="s">
-        <v>263</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>309</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>233</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>234</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>236</v>
-      </c>
-      <c r="AU8" t="s">
-        <v>382</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>392</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>404</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>233</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>234</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>236</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>246</v>
-      </c>
       <c r="BB8" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="BC8" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="BD8" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BE8" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BF8" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BG8" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
-    <row r="9" spans="1:77">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>95</v>
       </c>
@@ -2633,7 +2710,7 @@
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>525</v>
       </c>
       <c r="D9">
         <v>153</v>
@@ -2642,7 +2719,7 @@
         <v>2005.07</v>
       </c>
     </row>
-    <row r="10" spans="1:77">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>100</v>
       </c>
@@ -2650,7 +2727,7 @@
         <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>523</v>
       </c>
       <c r="D10">
         <v>69</v>
@@ -2659,43 +2736,43 @@
         <v>2000.04</v>
       </c>
       <c r="R10" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="S10" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="T10" t="s">
+        <v>226</v>
+      </c>
+      <c r="U10" t="s">
+        <v>227</v>
+      </c>
+      <c r="V10" t="s">
+        <v>229</v>
+      </c>
+      <c r="W10" t="s">
         <v>233</v>
       </c>
-      <c r="U10" t="s">
-        <v>234</v>
-      </c>
-      <c r="V10" t="s">
-        <v>236</v>
-      </c>
-      <c r="W10" t="s">
-        <v>240</v>
-      </c>
       <c r="X10" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="Y10" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="Z10" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC10" t="s">
         <v>233</v>
       </c>
-      <c r="AA10" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>240</v>
-      </c>
     </row>
-    <row r="11" spans="1:77">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -2703,7 +2780,7 @@
         <v>83</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>524</v>
       </c>
       <c r="D11">
         <v>299</v>
@@ -2712,223 +2789,223 @@
         <v>2016.11</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="H11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="L11" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M11" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="N11" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O11">
         <v>110938</v>
       </c>
       <c r="P11">
-        <v>37.548926</v>
+        <v>37.548926000000002</v>
       </c>
       <c r="Q11">
-        <v>127.014119</v>
+        <v>127.01411899999999</v>
       </c>
       <c r="R11" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="S11" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="T11" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="U11" t="s">
+        <v>227</v>
+      </c>
+      <c r="V11" t="s">
+        <v>229</v>
+      </c>
+      <c r="W11" t="s">
         <v>234</v>
       </c>
-      <c r="V11" t="s">
-        <v>236</v>
-      </c>
-      <c r="W11" t="s">
-        <v>241</v>
-      </c>
       <c r="X11" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="Y11" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Z11" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AA11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AB11" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AC11" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="AD11" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="AE11" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="AF11" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AG11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AH11" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AI11" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="AJ11" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AK11" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AL11" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AM11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AN11" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AO11" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AP11" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AQ11" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="AR11" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AS11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AT11" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AU11" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AV11" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AW11" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="AX11" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AY11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AZ11" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BA11" t="s">
+        <v>410</v>
+      </c>
+      <c r="BB11" t="s">
         <v>417</v>
       </c>
-      <c r="BB11" t="s">
-        <v>424</v>
-      </c>
       <c r="BC11" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="BD11" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BE11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BF11" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BG11" t="s">
+        <v>433</v>
+      </c>
+      <c r="BH11" t="s">
         <v>440</v>
       </c>
-      <c r="BH11" t="s">
-        <v>447</v>
-      </c>
       <c r="BI11" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="BJ11" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BK11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BL11" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BM11" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="BN11" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="BO11" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="BP11" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BQ11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BR11" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BS11" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="BT11" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="BU11" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="BV11" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BW11" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BX11" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="BY11" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:77">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -2936,7 +3013,7 @@
         <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D12">
         <v>33</v>
@@ -2945,205 +3022,205 @@
         <v>2011.07</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="H12" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="M12" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="N12" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O12">
         <v>27620</v>
       </c>
       <c r="P12">
-        <v>37.545722</v>
+        <v>37.545721999999998</v>
       </c>
       <c r="Q12">
         <v>127.042339</v>
       </c>
       <c r="R12" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="S12" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="T12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="U12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="V12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="W12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="X12" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Y12" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="Z12" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AA12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AB12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AC12" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="AD12" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="AE12" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AF12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AG12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AH12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AI12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AJ12" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AK12" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AL12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AM12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AN12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AO12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AP12" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AQ12" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="AR12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AS12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AT12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AU12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AV12" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="AW12" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AX12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AY12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AZ12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BA12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="BH12" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="BI12" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="BJ12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BK12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BL12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BM12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="BN12" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="BO12" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="BP12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BQ12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BR12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BS12" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="BT12" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="BU12" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="BV12" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="BW12" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BX12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BY12" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="13" spans="1:77">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>39</v>
       </c>
@@ -3151,7 +3228,7 @@
         <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D13">
         <v>554</v>
@@ -3160,223 +3237,223 @@
         <v>2012.12</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M13" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="N13" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O13">
         <v>100692</v>
       </c>
       <c r="P13">
-        <v>37.544911</v>
+        <v>37.544910999999999</v>
       </c>
       <c r="Q13">
         <v>127.013841</v>
       </c>
       <c r="R13" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="S13" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="T13" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="U13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="V13" t="s">
+        <v>229</v>
+      </c>
+      <c r="W13" t="s">
         <v>236</v>
       </c>
-      <c r="W13" t="s">
-        <v>243</v>
-      </c>
       <c r="X13" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="Y13" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="Z13" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AA13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AB13" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AC13" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AD13" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="AE13" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AF13" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AG13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AH13" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AI13" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="AJ13" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="AK13" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AL13" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AM13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AN13" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AO13" t="s">
+        <v>348</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>326</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>364</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>377</v>
+      </c>
+      <c r="AV13" t="s">
         <v>355</v>
       </c>
-      <c r="AP13" t="s">
-        <v>333</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>371</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>233</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>234</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>236</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>384</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>362</v>
-      </c>
       <c r="AW13" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="AX13" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AY13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AZ13" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BA13" t="s">
+        <v>411</v>
+      </c>
+      <c r="BB13" t="s">
         <v>418</v>
       </c>
-      <c r="BB13" t="s">
-        <v>425</v>
-      </c>
       <c r="BC13" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="BD13" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BE13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BF13" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BG13" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="BH13" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="BI13" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="BJ13" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BK13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BL13" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BM13" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="BN13" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="BO13" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="BP13" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BQ13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BR13" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BS13" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="BT13" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="BU13" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="BV13" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BW13" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BX13" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BY13" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:77">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>54</v>
       </c>
@@ -3384,7 +3461,7 @@
         <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D14">
         <v>222</v>
@@ -3393,205 +3470,205 @@
         <v>2018.06</v>
       </c>
       <c r="F14" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G14" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H14" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="K14" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="N14" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O14">
         <v>111258</v>
       </c>
       <c r="P14">
-        <v>37.555687</v>
+        <v>37.555686999999999</v>
       </c>
       <c r="Q14">
-        <v>127.038379</v>
+        <v>127.03837900000001</v>
       </c>
       <c r="R14" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="S14" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="T14" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="U14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="V14" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="W14" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="X14" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="Y14" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="Z14" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AA14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AB14" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AC14" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AD14" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AE14" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AF14" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AG14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AH14" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AI14" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AJ14" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AK14" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AL14" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AM14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AN14" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AO14" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AP14" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="AQ14" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="AR14" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AS14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AT14" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AU14" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="AV14" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AW14" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="AX14" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AY14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AZ14" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BA14" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="BH14" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="BI14" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="BJ14" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BK14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BL14" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BM14" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="BN14" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="BO14" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="BP14" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BQ14" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BR14" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BS14" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="BT14" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="BU14" t="s">
+        <v>512</v>
+      </c>
+      <c r="BV14" t="s">
         <v>519</v>
       </c>
-      <c r="BV14" t="s">
-        <v>526</v>
-      </c>
       <c r="BW14" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BX14" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BY14" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="15" spans="1:77">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>57</v>
       </c>
@@ -3599,7 +3676,7 @@
         <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D15">
         <v>267</v>
@@ -3608,205 +3685,205 @@
         <v>2007.07</v>
       </c>
       <c r="F15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="H15" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="L15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O15">
         <v>18541</v>
       </c>
       <c r="P15">
-        <v>37.544958</v>
+        <v>37.544958000000001</v>
       </c>
       <c r="Q15">
         <v>127.02221</v>
       </c>
       <c r="R15" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="S15" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="T15" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="U15" t="s">
+        <v>228</v>
+      </c>
+      <c r="V15" t="s">
+        <v>229</v>
+      </c>
+      <c r="W15" t="s">
+        <v>238</v>
+      </c>
+      <c r="X15" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>266</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>281</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>241</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>339</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>241</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>356</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>366</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>378</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>389</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>402</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>226</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>227</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>229</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>379</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>444</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>456</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>226</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>227</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>229</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>314</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>472</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>483</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>227</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>229</v>
+      </c>
+      <c r="BS15" t="s">
         <v>235</v>
       </c>
-      <c r="V15" t="s">
-        <v>236</v>
-      </c>
-      <c r="W15" t="s">
-        <v>245</v>
-      </c>
-      <c r="X15" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>273</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>301</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>273</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>234</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>248</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>200</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>346</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>233</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>236</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>248</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>363</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>373</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>233</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>234</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>236</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>385</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>396</v>
-      </c>
-      <c r="AW15" t="s">
+      <c r="BT15" t="s">
+        <v>501</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>513</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>225</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>227</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>229</v>
+      </c>
+      <c r="BY15" t="s">
         <v>409</v>
       </c>
-      <c r="AX15" t="s">
-        <v>233</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>234</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>236</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>386</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>451</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>463</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>233</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>234</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>236</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>321</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>479</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>490</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>233</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>234</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>236</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>242</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>508</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>520</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>232</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>234</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>236</v>
-      </c>
-      <c r="BY15" t="s">
-        <v>416</v>
-      </c>
     </row>
-    <row r="16" spans="1:77">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>61</v>
       </c>
@@ -3814,7 +3891,7 @@
         <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D16">
         <v>67</v>
@@ -3823,223 +3900,223 @@
         <v>2009.06</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="H16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M16" t="s">
+        <v>183</v>
+      </c>
+      <c r="N16" t="s">
         <v>190</v>
-      </c>
-      <c r="N16" t="s">
-        <v>197</v>
       </c>
       <c r="O16">
         <v>27424</v>
       </c>
       <c r="P16">
-        <v>37.5418</v>
+        <v>37.541800000000002</v>
       </c>
       <c r="Q16">
         <v>127.052578</v>
       </c>
       <c r="R16" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="S16" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="T16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="U16" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="V16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="W16" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="X16" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="Y16" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>282</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>327</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>340</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO16" t="s">
         <v>274</v>
       </c>
-      <c r="Z16" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>289</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>299</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>314</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>234</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>289</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>334</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>347</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>233</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>236</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>281</v>
-      </c>
       <c r="AP16" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="AQ16" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AR16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AS16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AT16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AU16" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AV16" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AW16" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AX16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AY16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AZ16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BA16" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="BB16" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="BC16" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="BD16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BE16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BF16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BG16" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="BH16" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="BI16" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="BJ16" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BK16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BL16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BM16" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="BN16" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="BO16" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="BP16" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BQ16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BR16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BS16" t="s">
+        <v>495</v>
+      </c>
+      <c r="BT16" t="s">
         <v>502</v>
       </c>
-      <c r="BT16" t="s">
-        <v>509</v>
-      </c>
       <c r="BU16" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="BV16" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BW16" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BX16" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BY16" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
-    <row r="17" spans="1:77">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>72</v>
       </c>
@@ -4047,7 +4124,7 @@
         <v>83</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D17">
         <v>144</v>
@@ -4056,205 +4133,205 @@
         <v>2012.01</v>
       </c>
       <c r="F17" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="H17" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J17" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="K17" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="L17" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="M17" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O17">
         <v>103136</v>
       </c>
       <c r="P17">
-        <v>37.542149</v>
+        <v>37.542149000000002</v>
       </c>
       <c r="Q17">
-        <v>127.01806</v>
+        <v>127.01806000000001</v>
       </c>
       <c r="R17" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="S17" t="s">
+        <v>218</v>
+      </c>
+      <c r="T17" t="s">
+        <v>226</v>
+      </c>
+      <c r="U17" t="s">
+        <v>228</v>
+      </c>
+      <c r="V17" t="s">
+        <v>229</v>
+      </c>
+      <c r="W17" t="s">
+        <v>240</v>
+      </c>
+      <c r="X17" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>242</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>319</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>328</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>341</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>276</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>358</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>368</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>227</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>377</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>391</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>403</v>
+      </c>
+      <c r="AX17" t="s">
         <v>225</v>
       </c>
-      <c r="T17" t="s">
-        <v>233</v>
-      </c>
-      <c r="U17" t="s">
-        <v>235</v>
-      </c>
-      <c r="V17" t="s">
-        <v>236</v>
-      </c>
-      <c r="W17" t="s">
-        <v>247</v>
-      </c>
-      <c r="X17" t="s">
-        <v>262</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>275</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>233</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>249</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>302</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>315</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>234</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>326</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>335</v>
-      </c>
-      <c r="AK17" t="s">
+      <c r="AY17" t="s">
+        <v>227</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>229</v>
+      </c>
+      <c r="BA17" t="s">
         <v>348</v>
       </c>
-      <c r="AL17" t="s">
-        <v>233</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>236</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>283</v>
-      </c>
-      <c r="AP17" t="s">
-        <v>365</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>375</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>233</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>234</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>236</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>384</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>398</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>410</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>232</v>
-      </c>
-      <c r="AY17" t="s">
-        <v>234</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>236</v>
-      </c>
-      <c r="BA17" t="s">
-        <v>355</v>
-      </c>
       <c r="BH17" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="BI17" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="BJ17" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BK17" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BL17" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BM17" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="BN17" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="BO17" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="BP17" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BQ17" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BR17" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BS17" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="BT17" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="BU17" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="BV17" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BW17" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BX17" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BY17" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
-    <row r="18" spans="1:77">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>75</v>
       </c>
@@ -4262,7 +4339,7 @@
         <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D18">
         <v>44</v>
@@ -4271,223 +4348,223 @@
         <v>2016.04</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="K18" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M18" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="N18" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O18">
         <v>107508</v>
       </c>
       <c r="P18">
-        <v>37.560982</v>
+        <v>37.560982000000003</v>
       </c>
       <c r="Q18">
-        <v>127.026959</v>
+        <v>127.02695900000001</v>
       </c>
       <c r="R18" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="S18" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="T18" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="U18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="V18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="W18" t="s">
+        <v>241</v>
+      </c>
+      <c r="X18" t="s">
         <v>248</v>
       </c>
-      <c r="X18" t="s">
-        <v>255</v>
-      </c>
       <c r="Y18" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Z18" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AA18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AB18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AC18" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="AD18" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="AE18" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AF18" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AG18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AH18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AI18" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="AJ18" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="AK18" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AL18" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AM18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AN18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AO18" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AP18" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AQ18" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="AR18" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AS18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AT18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AU18" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AV18" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="AW18" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="AX18" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AY18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AZ18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BA18" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="BB18" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="BC18" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="BD18" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BE18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BF18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BG18" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="BH18" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="BI18" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="BJ18" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BK18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BL18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BM18" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="BN18" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="BO18" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="BP18" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BQ18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BR18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BS18" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="BT18" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="BU18" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="BV18" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BW18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BX18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BY18" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
-    <row r="19" spans="1:77">
+    <row r="19" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>77</v>
       </c>
@@ -4495,7 +4572,7 @@
         <v>82</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D19">
         <v>487</v>
@@ -4504,223 +4581,223 @@
         <v>2016.11</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="I19" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K19" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="M19" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="N19" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O19">
         <v>109910</v>
       </c>
       <c r="P19">
-        <v>37.566563</v>
+        <v>37.566563000000002</v>
       </c>
       <c r="Q19">
         <v>127.024787</v>
       </c>
       <c r="R19" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="S19" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="T19" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="U19" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="V19" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="W19" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="X19" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Y19" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="Z19" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AA19" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AB19" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AC19" t="s">
+        <v>283</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>309</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>227</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>329</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>342</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>349</v>
+      </c>
+      <c r="AP19" t="s">
         <v>290</v>
       </c>
-      <c r="AD19" t="s">
-        <v>303</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>316</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>233</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>234</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>247</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>336</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>349</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>233</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>236</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>356</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>297</v>
-      </c>
       <c r="AQ19" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AR19" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AS19" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AT19" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AU19" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="AV19" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AW19" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="AX19" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AY19" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AZ19" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BA19" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="BB19" t="s">
+        <v>420</v>
+      </c>
+      <c r="BC19" t="s">
         <v>427</v>
       </c>
-      <c r="BC19" t="s">
-        <v>434</v>
-      </c>
       <c r="BD19" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BE19" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BF19" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BG19" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="BH19" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="BI19" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="BJ19" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BK19" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BL19" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BM19" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="BN19" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="BO19" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="BP19" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BQ19" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BR19" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BS19" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="BT19" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="BU19" t="s">
+        <v>514</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>226</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>227</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>229</v>
+      </c>
+      <c r="BY19" t="s">
         <v>521</v>
       </c>
-      <c r="BV19" t="s">
-        <v>233</v>
-      </c>
-      <c r="BW19" t="s">
-        <v>234</v>
-      </c>
-      <c r="BX19" t="s">
-        <v>236</v>
-      </c>
-      <c r="BY19" t="s">
-        <v>528</v>
-      </c>
     </row>
-    <row r="20" spans="1:77">
+    <row r="20" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>91</v>
       </c>
@@ -4728,7 +4805,7 @@
         <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D20">
         <v>381</v>
@@ -4737,223 +4814,223 @@
         <v>2015.04</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H20" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="I20" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J20" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="K20" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="L20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="M20" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N20" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O20">
         <v>107240</v>
       </c>
       <c r="P20">
-        <v>37.568901</v>
+        <v>37.568900999999997</v>
       </c>
       <c r="Q20">
         <v>127.028239</v>
       </c>
       <c r="R20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="S20" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="T20" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="U20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="V20" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="W20" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="X20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="Y20" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="Z20" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AA20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AB20" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AC20" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="AD20" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="AE20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="AF20" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AG20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AH20" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AI20" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AJ20" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AK20" t="s">
+        <v>343</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>226</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>227</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO20" t="s">
         <v>350</v>
       </c>
-      <c r="AL20" t="s">
-        <v>233</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>234</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>236</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>357</v>
-      </c>
       <c r="AP20" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AQ20" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AR20" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AS20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AT20" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AU20" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="AV20" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AW20" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="AX20" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AY20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AZ20" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BA20" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="BB20" t="s">
+        <v>421</v>
+      </c>
+      <c r="BC20" t="s">
         <v>428</v>
       </c>
-      <c r="BC20" t="s">
-        <v>435</v>
-      </c>
       <c r="BD20" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BE20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BF20" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BG20" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="BH20" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="BI20" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="BJ20" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BK20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BL20" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BM20" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="BN20" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="BO20" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="BP20" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BQ20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BR20" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BS20" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="BT20" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="BU20" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="BV20" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BW20" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BX20" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BY20" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:77">
+    <row r="21" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>92</v>
       </c>
@@ -4961,7 +5038,7 @@
         <v>79</v>
       </c>
       <c r="C21" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D21">
         <v>76</v>
@@ -4970,223 +5047,223 @@
         <v>2017.05</v>
       </c>
       <c r="F21" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I21" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="J21" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="K21" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="L21" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M21" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="N21" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O21">
         <v>108405</v>
       </c>
       <c r="P21">
-        <v>37.538893</v>
+        <v>37.538893000000002</v>
       </c>
       <c r="Q21">
-        <v>127.044942</v>
+        <v>127.04494200000001</v>
       </c>
       <c r="R21" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="S21" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="T21" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="U21" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="V21" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="W21" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="X21" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="Y21" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Z21" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AA21" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AB21" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AC21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AD21" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="AE21" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="AF21" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AG21" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AH21" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AI21" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AJ21" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AK21" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="AL21" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AM21" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="AN21" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AO21" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="AP21" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="AQ21" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="AR21" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AS21" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AT21" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AU21" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="AV21" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="AW21" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AX21" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AY21" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AZ21" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BA21" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="BB21" t="s">
+        <v>422</v>
+      </c>
+      <c r="BC21" t="s">
         <v>429</v>
       </c>
-      <c r="BC21" t="s">
-        <v>436</v>
-      </c>
       <c r="BD21" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BE21" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BF21" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BG21" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="BH21" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="BI21" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="BJ21" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BK21" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BL21" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BM21" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="BN21" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="BO21" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="BP21" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BQ21" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BR21" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BS21" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="BT21" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="BU21" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="BV21" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BW21" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BX21" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BY21" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
-    <row r="22" spans="1:77">
+    <row r="22" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>94</v>
       </c>
@@ -5194,7 +5271,7 @@
         <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D22">
         <v>139</v>
@@ -5203,223 +5280,223 @@
         <v>1982.1</v>
       </c>
       <c r="F22" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G22" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="H22" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I22" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="J22" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="K22" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="M22" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="N22" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="O22">
         <v>566</v>
       </c>
       <c r="P22">
-        <v>37.539684</v>
+        <v>37.539684000000001</v>
       </c>
       <c r="Q22">
         <v>127.0142</v>
       </c>
       <c r="R22" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="S22" t="s">
+        <v>223</v>
+      </c>
+      <c r="T22" t="s">
+        <v>227</v>
+      </c>
+      <c r="U22" t="s">
+        <v>228</v>
+      </c>
+      <c r="V22" t="s">
         <v>230</v>
       </c>
-      <c r="T22" t="s">
-        <v>234</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="W22" t="s">
+        <v>245</v>
+      </c>
+      <c r="X22" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>229</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>312</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>321</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>331</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>345</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>228</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>229</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>351</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>360</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>372</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>382</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>395</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>407</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>227</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>228</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>229</v>
+      </c>
+      <c r="BA22" t="s">
         <v>235</v>
       </c>
-      <c r="V22" t="s">
-        <v>237</v>
-      </c>
-      <c r="W22" t="s">
-        <v>252</v>
-      </c>
-      <c r="X22" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>279</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>234</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>236</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>293</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>306</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>319</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>235</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>328</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>338</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>352</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>234</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>235</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>236</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>358</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>367</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>379</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>234</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>235</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>236</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>389</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>402</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>414</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>234</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>235</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>236</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>242</v>
-      </c>
       <c r="BB22" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="BC22" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="BD22" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BE22" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="BF22" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="BG22" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="BH22" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="BI22" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="BJ22" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BK22" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="BL22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BM22" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="BN22" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="BO22" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="BP22" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BQ22" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="BR22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BS22" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="BT22" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="BU22" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="BV22" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BW22" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="BX22" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BY22" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:77">
+    <row r="23" spans="1:77" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>107</v>
       </c>
@@ -5427,7 +5504,7 @@
         <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D23">
         <v>122</v>
@@ -5436,223 +5513,224 @@
         <v>2018.02</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G23" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="I23" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="J23" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="K23" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="L23" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="M23" t="s">
+        <v>183</v>
+      </c>
+      <c r="N23" t="s">
         <v>190</v>
-      </c>
-      <c r="N23" t="s">
-        <v>197</v>
       </c>
       <c r="O23">
         <v>110939</v>
       </c>
       <c r="P23">
-        <v>37.547053</v>
+        <v>37.547052999999998</v>
       </c>
       <c r="Q23">
         <v>127.026383</v>
       </c>
       <c r="R23" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="S23" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="T23" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="U23" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="V23" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="W23" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="X23" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Y23" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="Z23" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AA23" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AB23" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AC23" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AD23" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AE23" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AF23" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AH23" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AI23" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="AJ23" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="AK23" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AL23" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AM23" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AN23" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AO23" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AP23" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AQ23" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AR23" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AS23" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AT23" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="AU23" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="AV23" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AW23" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="AX23" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="AY23" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AZ23" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BA23" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="BB23" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="BC23" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="BD23" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="BE23" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BF23" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BG23" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="BH23" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="BI23" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="BJ23" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BK23" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BL23" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BM23" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="BN23" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="BO23" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="BP23" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BQ23" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BR23" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BS23" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="BT23" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="BU23" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="BV23" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="BW23" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="BX23" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BY23" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>